--- a/biology/Médecine/Jean_Prévost_(médecin)/Jean_Prévost_(médecin).xlsx
+++ b/biology/Médecine/Jean_Prévost_(médecin)/Jean_Prévost_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Pr%C3%A9vost_(m%C3%A9decin)</t>
+          <t>Jean_Prévost_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Prévost (né à Delémont le 4 juillet 1585 et mort à Padoue le 3 août 1631) est un médecin et botaniste suisse, aussi connu sous le nom de Johannes Praevotius, Johannes Prevozio et Jean Prévôt[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Prévost (né à Delémont le 4 juillet 1585 et mort à Padoue le 3 août 1631) est un médecin et botaniste suisse, aussi connu sous le nom de Johannes Praevotius, Johannes Prevozio et Jean Prévôt.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_Pr%C3%A9vost_(m%C3%A9decin)</t>
+          <t>Jean_Prévost_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il étudie d'abord chez les jésuites à Porrentruy et à Dole en Bourgogne[1] puis à  Dillingen an der Donau en Allemagne et se consacre à des études humanistes et philosophiques.
-En 1604, il va à Padoue où il étudie la médecine sous l'autorité des célèbres Ercole Sassonia et Girolamo Fabrizi d'Acquapendente et où il obtient son doctorat en médecine en 1607[1].
-Il devient rapidement célèbre pour ses capacités de médecin et, en 1613, il obtient la chaire de lecture du 3e livre d'Avicenne succédant ainsi à Andrighetto Andrighetti. En 1616, il passe à la chaire de Médecine pratique extraordinaire. À la mort de Prospero Alpini, il est nommé préfet du jardin botanique (jardin des simples, en latin : ostensio simplicium) et se voit également confier l'enseignement de la botanique pratique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie d'abord chez les jésuites à Porrentruy et à Dole en Bourgogne puis à  Dillingen an der Donau en Allemagne et se consacre à des études humanistes et philosophiques.
+En 1604, il va à Padoue où il étudie la médecine sous l'autorité des célèbres Ercole Sassonia et Girolamo Fabrizi d'Acquapendente et où il obtient son doctorat en médecine en 1607.
+Il devient rapidement célèbre pour ses capacités de médecin et, en 1613, il obtient la chaire de lecture du 3e livre d'Avicenne succédant ainsi à Andrighetto Andrighetti. En 1616, il passe à la chaire de Médecine pratique extraordinaire. À la mort de Prospero Alpini, il est nommé préfet du jardin botanique (jardin des simples, en latin : ostensio simplicium) et se voit également confier l'enseignement de la botanique pratique.
 Enfin, en 1620, il passe à la chaire de médecine pratique qu'il occupe jusqu'à sa mort causée par l'épidémie de peste qui sévit à Padoue en 1631.
-Particulièrement célèbre en tant que médecin, il était aussi un bon botaniste à tel point que le genre Praevotia lui était dédié[3].
+Particulièrement célèbre en tant que médecin, il était aussi un bon botaniste à tel point que le genre Praevotia lui était dédié.
 Ses travaux médicaux, dont beaucoup ont été publiés à titre posthume, ont eu plusieurs éditions et une large réputation tout au long du XVIIe siècle.
-Il a été enterré dans la basilique Saint-Antoine de Padoue et la Natio Germanica[4] a fait peindre ses armoiries dans le Palais Bo.
+Il a été enterré dans la basilique Saint-Antoine de Padoue et la Natio Germanica a fait peindre ses armoiries dans le Palais Bo.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean_Pr%C3%A9vost_(m%C3%A9decin)</t>
+          <t>Jean_Prévost_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,11 +562,13 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De remediorum tum simplicium, tum compositurum materia 1611.
 Medicina pauperum mira serie continens remedia ad aegrotos cuiuscunque generis persanandos aptissima, facile parabilia, extemporanea, &amp; nullius, vel perexigui sumptus. Huic pauperum thesauro adiungitur. Eiusdem auctoris libellus aureus de venenis 1641.
-De compositione medicamentorum libellus 1649[5].
+De compositione medicamentorum libellus 1649.
 Hortulus medicus selectioribus remediis ceu flosculis versicoloribus refertus 1681.
 Simiotice sive de signis medicis ench et ridion 1654.
 De morbosis veteri passionibus tractatio 1669.</t>
